--- a/Greenbook_Output_Gap_Updated.xlsx
+++ b/Greenbook_Output_Gap_Updated.xlsx
@@ -14,508 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
-  <si>
-    <t>GBgap_960321</t>
-  </si>
-  <si>
-    <t>GBgap_960516</t>
-  </si>
-  <si>
-    <t>GBgap_960626</t>
-  </si>
-  <si>
-    <t>GBgap_960815</t>
-  </si>
-  <si>
-    <t>GBgap_960918</t>
-  </si>
-  <si>
-    <t>GBgap_961106</t>
-  </si>
-  <si>
-    <t>GBgap_961212</t>
-  </si>
-  <si>
-    <t>GBgap_970129</t>
-  </si>
-  <si>
-    <t>GBgap_970319</t>
-  </si>
-  <si>
-    <t>GBgap_970515</t>
-  </si>
-  <si>
-    <t>GBgap_970625</t>
-  </si>
-  <si>
-    <t>GBgap_970814</t>
-  </si>
-  <si>
-    <t>GBgap_970924</t>
-  </si>
-  <si>
-    <t>GBgap_971106</t>
-  </si>
-  <si>
-    <t>GBgap_971211</t>
-  </si>
-  <si>
-    <t>GBgap_980128</t>
-  </si>
-  <si>
-    <t>GBgap_980325</t>
-  </si>
-  <si>
-    <t>GBgap_980514</t>
-  </si>
-  <si>
-    <t>GBgap_980624</t>
-  </si>
-  <si>
-    <t>GBgap_980813</t>
-  </si>
-  <si>
-    <t>GBgap_980923</t>
-  </si>
-  <si>
-    <t>GBgap_981112</t>
-  </si>
-  <si>
-    <t>GBgap_981216</t>
-  </si>
-  <si>
-    <t>GBgap_990128</t>
-  </si>
-  <si>
-    <t>GBgap_990324</t>
-  </si>
-  <si>
-    <t>GBgap_990513</t>
-  </si>
-  <si>
-    <t>GBgap_990623</t>
-  </si>
-  <si>
-    <t>GBgap_990818</t>
-  </si>
-  <si>
-    <t>GBgap_990929</t>
-  </si>
-  <si>
-    <t>GBgap_991110</t>
-  </si>
-  <si>
-    <t>GBgap_991215</t>
-  </si>
-  <si>
-    <t>GBgap_000127</t>
-  </si>
-  <si>
-    <t>GBgap_000315</t>
-  </si>
-  <si>
-    <t>GBgap_000511</t>
-  </si>
-  <si>
-    <t>GBgap_000621</t>
-  </si>
-  <si>
-    <t>GBgap_000816</t>
-  </si>
-  <si>
-    <t>GBgap_000927</t>
-  </si>
-  <si>
-    <t>GBgap_001108</t>
-  </si>
-  <si>
-    <t>GBgap_001213</t>
-  </si>
-  <si>
-    <t>GBgap_010125</t>
-  </si>
-  <si>
-    <t>GBgap_010314</t>
-  </si>
-  <si>
-    <t>GBgap_010509</t>
-  </si>
-  <si>
-    <t>GBgap_010620</t>
-  </si>
-  <si>
-    <t>GBgap_010816</t>
-  </si>
-  <si>
-    <t>GBgap_010927</t>
-  </si>
-  <si>
-    <t>GBgap_011031</t>
-  </si>
-  <si>
-    <t>GBgap_011205</t>
-  </si>
-  <si>
-    <t>GBgap_020123</t>
-  </si>
-  <si>
-    <t>GBgap_020313</t>
-  </si>
-  <si>
-    <t>GBgap_020501</t>
-  </si>
-  <si>
-    <t>GBgap_020620</t>
-  </si>
-  <si>
-    <t>GBgap_020807</t>
-  </si>
-  <si>
-    <t>GBgap_020918</t>
-  </si>
-  <si>
-    <t>GBgap_021030</t>
-  </si>
-  <si>
-    <t>GBgap_021204</t>
-  </si>
-  <si>
-    <t>GBgap_030122</t>
-  </si>
-  <si>
-    <t>GBgap_030313</t>
-  </si>
-  <si>
-    <t>GBgap_030430</t>
-  </si>
-  <si>
-    <t>GBgap_030618</t>
-  </si>
-  <si>
-    <t>GBgap_030806</t>
-  </si>
-  <si>
-    <t>GBgap_030910</t>
-  </si>
-  <si>
-    <t>GBgap_031022</t>
-  </si>
-  <si>
-    <t>GBgap_031203</t>
-  </si>
-  <si>
-    <t>GBgap_040121</t>
-  </si>
-  <si>
-    <t>GBgap_040311</t>
-  </si>
-  <si>
-    <t>GBgap_040428</t>
-  </si>
-  <si>
-    <t>GBgap_040623</t>
-  </si>
-  <si>
-    <t>GBgap_040805</t>
-  </si>
-  <si>
-    <t>GBgap_040915</t>
-  </si>
-  <si>
-    <t>GBgap_041103</t>
-  </si>
-  <si>
-    <t>GBgap_041208</t>
-  </si>
-  <si>
-    <t>GBgap_050126</t>
-  </si>
-  <si>
-    <t>GBgap_050316</t>
-  </si>
-  <si>
-    <t>GBgap_050428</t>
-  </si>
-  <si>
-    <t>GBgap_050622</t>
-  </si>
-  <si>
-    <t>GBgap_050804</t>
-  </si>
-  <si>
-    <t>GBgap_050914</t>
-  </si>
-  <si>
-    <t>GBgap_051026</t>
-  </si>
-  <si>
-    <t>GBgap_051207</t>
-  </si>
-  <si>
-    <t>GBgap_060125</t>
-  </si>
-  <si>
-    <t>GBgap_060322</t>
-  </si>
-  <si>
-    <t>GBgap_060503</t>
-  </si>
-  <si>
-    <t>GBgap_060621</t>
-  </si>
-  <si>
-    <t>GBgap_060803</t>
-  </si>
-  <si>
-    <t>GBgap_060913</t>
-  </si>
-  <si>
-    <t>GBgap_061018</t>
-  </si>
-  <si>
-    <t>GBgap_061206</t>
-  </si>
-  <si>
-    <t>GBgap_070124</t>
-  </si>
-  <si>
-    <t>GBgap_070314</t>
-  </si>
-  <si>
-    <t>GBgap_070502</t>
-  </si>
-  <si>
-    <t>GBgap_070620</t>
-  </si>
-  <si>
-    <t>GBgap_070802</t>
-  </si>
-  <si>
-    <t>GBgap_070912</t>
-  </si>
-  <si>
-    <t>GBgap_071024</t>
-  </si>
-  <si>
-    <t>GBgap_071205</t>
-  </si>
-  <si>
-    <t>GBgap_080123</t>
-  </si>
-  <si>
-    <t>GBgap_080313</t>
-  </si>
-  <si>
-    <t>GBgap_080423</t>
-  </si>
-  <si>
-    <t>GBgap_080618</t>
-  </si>
-  <si>
-    <t>GBgap_080730</t>
-  </si>
-  <si>
-    <t>GBgap_080910</t>
-  </si>
-  <si>
-    <t>GBgap_081022</t>
-  </si>
-  <si>
-    <t>GBgap_081210</t>
-  </si>
-  <si>
-    <t>GBgap_090122</t>
-  </si>
-  <si>
-    <t>GBgap_090312</t>
-  </si>
-  <si>
-    <t>GBgap_090422</t>
-  </si>
-  <si>
-    <t>GBgap_090617</t>
-  </si>
-  <si>
-    <t>GBgap_090806</t>
-  </si>
-  <si>
-    <t>GBgap_090916</t>
-  </si>
-  <si>
-    <t>GBgap_091029</t>
-  </si>
-  <si>
-    <t>GBgap_091209</t>
-  </si>
-  <si>
-    <t>GBgap_100120</t>
-  </si>
-  <si>
-    <t>GBgap_100310</t>
-  </si>
-  <si>
-    <t>GBgap_100421</t>
-  </si>
-  <si>
-    <t>GBgap_100616</t>
-  </si>
-  <si>
-    <t>GBgap_100804</t>
-  </si>
-  <si>
-    <t>GBgap_100915</t>
-  </si>
-  <si>
-    <t>GBgap_101027</t>
-  </si>
-  <si>
-    <t>GBgap_101208</t>
-  </si>
-  <si>
-    <t>GBgap_110119</t>
-  </si>
-  <si>
-    <t>GBgap_110309</t>
-  </si>
-  <si>
-    <t>GBgap_110420</t>
-  </si>
-  <si>
-    <t>GBgap_110615</t>
-  </si>
-  <si>
-    <t>GBgap_110803</t>
-  </si>
-  <si>
-    <t>GBgap_110914</t>
-  </si>
-  <si>
-    <t>GBgap_111026</t>
-  </si>
-  <si>
-    <t>GBgap_111207</t>
-  </si>
-  <si>
-    <t>GBgap_120118</t>
-  </si>
-  <si>
-    <t>GBgap_120307</t>
-  </si>
-  <si>
-    <t>GBgap_120418</t>
-  </si>
-  <si>
-    <t>GBgap_120613</t>
-  </si>
-  <si>
-    <t>GBgap_120725</t>
-  </si>
-  <si>
-    <t>GBgap_120905</t>
-  </si>
-  <si>
-    <t>GBgap_121017</t>
-  </si>
-  <si>
-    <t>GBgap_121205</t>
-  </si>
-  <si>
-    <t>GBgap_130123</t>
-  </si>
-  <si>
-    <t>GBgap_130313</t>
-  </si>
-  <si>
-    <t>GBgap_130424</t>
-  </si>
-  <si>
-    <t>GBgap_130612</t>
-  </si>
-  <si>
-    <t>GBgap_130724</t>
-  </si>
-  <si>
-    <t>GBgap_130911</t>
-  </si>
-  <si>
-    <t>GBgap_131023</t>
-  </si>
-  <si>
-    <t>GBgap_131212</t>
-  </si>
-  <si>
-    <t>GBgap_140123</t>
-  </si>
-  <si>
-    <t>GBgap_140312</t>
-  </si>
-  <si>
-    <t>GBgap_140423</t>
-  </si>
-  <si>
-    <t>GBgap_140611</t>
-  </si>
-  <si>
-    <t>GBgap_140723</t>
-  </si>
-  <si>
-    <t>GBgap_140910</t>
-  </si>
-  <si>
-    <t>GBgap_141022</t>
-  </si>
-  <si>
-    <t>GBgap_141210</t>
-  </si>
-  <si>
-    <t>GBgap_150121</t>
-  </si>
-  <si>
-    <t>GBgap_150311</t>
-  </si>
-  <si>
-    <t>GBgap_150422</t>
-  </si>
-  <si>
-    <t>GBgap_150610</t>
-  </si>
-  <si>
-    <t>GBgap_150722</t>
-  </si>
-  <si>
-    <t>GBgap_150909</t>
-  </si>
-  <si>
-    <t>GBgap_151021</t>
-  </si>
-  <si>
-    <t>GBgap_151209</t>
-  </si>
-  <si>
-    <t>GBgap_160120</t>
-  </si>
-  <si>
-    <t>GBgap_160309</t>
-  </si>
-  <si>
-    <t>GBgap_160420</t>
-  </si>
-  <si>
-    <t>GBgap_160608</t>
-  </si>
-  <si>
-    <t>GBgap_160720</t>
-  </si>
-  <si>
-    <t>GBgap_160914</t>
-  </si>
-  <si>
-    <t>GBgap_161026</t>
-  </si>
-  <si>
-    <t>GBgap_161207</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>1975:01</t>
   </si>
@@ -1061,6 +560,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1113,8 +615,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1419,939 +924,939 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:168">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>35145</v>
+      </c>
+      <c r="C1" s="1">
+        <v>35201</v>
+      </c>
+      <c r="D1" s="1">
+        <v>35242</v>
+      </c>
+      <c r="E1" s="1">
+        <v>35292</v>
+      </c>
+      <c r="F1" s="1">
+        <v>35326</v>
+      </c>
+      <c r="G1" s="1">
+        <v>35375</v>
+      </c>
+      <c r="H1" s="1">
+        <v>35411</v>
+      </c>
+      <c r="I1" s="1">
+        <v>35459</v>
+      </c>
+      <c r="J1" s="1">
+        <v>35508</v>
+      </c>
+      <c r="K1" s="1">
+        <v>35565</v>
+      </c>
+      <c r="L1" s="1">
+        <v>35606</v>
+      </c>
+      <c r="M1" s="1">
+        <v>35656</v>
+      </c>
+      <c r="N1" s="1">
+        <v>35697</v>
+      </c>
+      <c r="O1" s="1">
+        <v>35740</v>
+      </c>
+      <c r="P1" s="1">
+        <v>35775</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>35823</v>
+      </c>
+      <c r="R1" s="1">
+        <v>35879</v>
+      </c>
+      <c r="S1" s="1">
+        <v>35929</v>
+      </c>
+      <c r="T1" s="1">
+        <v>35970</v>
+      </c>
+      <c r="U1" s="1">
+        <v>36020</v>
+      </c>
+      <c r="V1" s="1">
+        <v>36061</v>
+      </c>
+      <c r="W1" s="1">
+        <v>36111</v>
+      </c>
+      <c r="X1" s="1">
+        <v>36145</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>36188</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>36243</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>36293</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>36334</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>36390</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>36432</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>36474</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>36509</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>36552</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>36600</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>36657</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>36698</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36754</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36796</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>36838</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>36873</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>36916</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>36964</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>37020</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>37062</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>37119</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>37161</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>37195</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>37230</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>37279</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>37328</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>37377</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>37427</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>37475</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>37517</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>37559</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>37594</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>37643</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>37693</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>37741</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>37790</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>37839</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>37874</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>37916</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>37958</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>38007</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>38057</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>38105</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>38161</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>38204</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>38245</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>38294</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>38329</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>38378</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>38427</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>38470</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>38525</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>38568</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>38609</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>38651</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>38693</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>38742</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>38798</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>38840</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>38889</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>38932</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>38973</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>39008</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>39057</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>39106</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>39155</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>39204</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>39253</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>39296</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>39337</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>39379</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>39421</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>39470</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>39520</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>39561</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>39617</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>39659</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>39701</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>39743</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>39792</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>39835</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>39884</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>39925</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>39981</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>40031</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>40072</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>40115</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>40156</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>40198</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>40247</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>40289</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>40345</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>40394</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>40436</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>40478</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>40520</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>40562</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>40611</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>40653</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>40709</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>40758</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>40800</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>40842</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>40884</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>40926</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>40975</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>41017</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>41073</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>41115</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>41157</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>41199</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>41248</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>41297</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>41346</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>41388</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>41437</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>41479</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>41528</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>41570</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>41620</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>41662</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>41710</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>41752</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>41801</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>41843</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>41892</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>41934</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>41983</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>42025</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>42074</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>42116</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>42165</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>42207</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>42256</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>42298</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>42347</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>42389</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>42438</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>42480</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>42529</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>42571</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>42627</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>42669</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:168">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:168">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:168">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:168">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:168">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:168">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:168">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:168">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:168">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:168">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:168">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="13" spans="1:168">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="14" spans="1:168">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:168">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:168">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="1" t="s">
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:168">
-      <c r="A2" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:168">
-      <c r="A3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:168">
-      <c r="A4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:168">
-      <c r="A5" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:168">
-      <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:168">
-      <c r="A7" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:168">
-      <c r="A8" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:168">
-      <c r="A9" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:168">
-      <c r="A10" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:168">
-      <c r="A11" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:168">
-      <c r="A12" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:168">
-      <c r="A13" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:168">
-      <c r="A14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:168">
-      <c r="A15" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:168">
-      <c r="A16" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="B86">
         <v>-0.424100011587143</v>
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="1" t="s">
-        <v>252</v>
+      <c r="A87" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B87">
         <v>-0.046000000089407</v>
@@ -2364,8 +1869,8 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="1" t="s">
-        <v>253</v>
+      <c r="A88" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B88">
         <v>-0.06570000201463699</v>
@@ -2384,8 +1889,8 @@
       </c>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="1" t="s">
-        <v>254</v>
+      <c r="A89" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B89">
         <v>0.0456999987363815</v>
@@ -2410,8 +1915,8 @@
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="1" t="s">
-        <v>255</v>
+      <c r="A90" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B90">
         <v>0.09329999983310699</v>
@@ -2442,8 +1947,8 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="1" t="s">
-        <v>256</v>
+      <c r="A91" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B91">
         <v>0.143399998545647</v>
@@ -2480,8 +1985,8 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="1" t="s">
-        <v>257</v>
+      <c r="A92" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B92">
         <v>0.115800000727177</v>
@@ -2524,8 +2029,8 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="1" t="s">
-        <v>258</v>
+      <c r="A93" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B93">
         <v>0.222699999809265</v>
@@ -2574,8 +2079,8 @@
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="1" t="s">
-        <v>259</v>
+      <c r="A94" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F94">
         <v>0.983254469656816</v>
@@ -2618,8 +2123,8 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="1" t="s">
-        <v>260</v>
+      <c r="A95" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F95">
         <v>1.01221726454029</v>
@@ -2668,8 +2173,8 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="1" t="s">
-        <v>261</v>
+      <c r="A96" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F96">
         <v>1.03945608174117</v>
@@ -2724,8 +2229,8 @@
       </c>
     </row>
     <row r="97" spans="1:54">
-      <c r="A97" s="1" t="s">
-        <v>262</v>
+      <c r="A97" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F97">
         <v>1.06211428744523</v>
@@ -2786,8 +2291,8 @@
       </c>
     </row>
     <row r="98" spans="1:54">
-      <c r="A98" s="1" t="s">
-        <v>263</v>
+      <c r="A98" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="N98">
         <v>2.07297541693625</v>
@@ -2830,8 +2335,8 @@
       </c>
     </row>
     <row r="99" spans="1:54">
-      <c r="A99" s="1" t="s">
-        <v>264</v>
+      <c r="A99" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="N99">
         <v>1.84146905452556</v>
@@ -2880,8 +2385,8 @@
       </c>
     </row>
     <row r="100" spans="1:54">
-      <c r="A100" s="1" t="s">
-        <v>265</v>
+      <c r="A100" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="N100">
         <v>1.60866614681581</v>
@@ -2936,8 +2441,8 @@
       </c>
     </row>
     <row r="101" spans="1:54">
-      <c r="A101" s="1" t="s">
-        <v>266</v>
+      <c r="A101" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="N101">
         <v>1.40942829067564</v>
@@ -2998,8 +2503,8 @@
       </c>
     </row>
     <row r="102" spans="1:54">
-      <c r="A102" s="1" t="s">
-        <v>267</v>
+      <c r="A102" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="V102">
         <v>-8.19270108254761E-05</v>
@@ -3042,8 +2547,8 @@
       </c>
     </row>
     <row r="103" spans="1:54">
-      <c r="A103" s="1" t="s">
-        <v>268</v>
+      <c r="A103" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="V103">
         <v>0.014349885507621</v>
@@ -3092,8 +2597,8 @@
       </c>
     </row>
     <row r="104" spans="1:54">
-      <c r="A104" s="1" t="s">
-        <v>269</v>
+      <c r="A104" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="V104">
         <v>-0.0258792582293876</v>
@@ -3148,8 +2653,8 @@
       </c>
     </row>
     <row r="105" spans="1:54">
-      <c r="A105" s="1" t="s">
-        <v>270</v>
+      <c r="A105" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="V105">
         <v>-0.064218194141605</v>
@@ -3210,8 +2715,8 @@
       </c>
     </row>
     <row r="106" spans="1:54">
-      <c r="A106" s="1" t="s">
-        <v>271</v>
+      <c r="A106" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="AD106">
         <v>2.43222665424103</v>
@@ -3254,8 +2759,8 @@
       </c>
     </row>
     <row r="107" spans="1:54">
-      <c r="A107" s="1" t="s">
-        <v>272</v>
+      <c r="A107" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="AD107">
         <v>2.31148489049962</v>
@@ -3304,8 +2809,8 @@
       </c>
     </row>
     <row r="108" spans="1:54">
-      <c r="A108" s="1" t="s">
-        <v>273</v>
+      <c r="A108" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="AD108">
         <v>2.19237438650181</v>
@@ -3360,8 +2865,8 @@
       </c>
     </row>
     <row r="109" spans="1:54">
-      <c r="A109" s="1" t="s">
-        <v>274</v>
+      <c r="A109" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AD109">
         <v>2.08224181493492</v>
@@ -3422,8 +2927,8 @@
       </c>
     </row>
     <row r="110" spans="1:54">
-      <c r="A110" s="1" t="s">
-        <v>275</v>
+      <c r="A110" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="AL110">
         <v>1.19823397332705</v>
@@ -3466,8 +2971,8 @@
       </c>
     </row>
     <row r="111" spans="1:54">
-      <c r="A111" s="1" t="s">
-        <v>276</v>
+      <c r="A111" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AL111">
         <v>1.12215887316475</v>
@@ -3516,8 +3021,8 @@
       </c>
     </row>
     <row r="112" spans="1:54">
-      <c r="A112" s="1" t="s">
-        <v>277</v>
+      <c r="A112" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="AL112">
         <v>1.06854483440169</v>
@@ -3572,8 +3077,8 @@
       </c>
     </row>
     <row r="113" spans="1:86">
-      <c r="A113" s="1" t="s">
-        <v>278</v>
+      <c r="A113" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="AL113">
         <v>1.0206936334569</v>
@@ -3634,8 +3139,8 @@
       </c>
     </row>
     <row r="114" spans="1:86">
-      <c r="A114" s="1" t="s">
-        <v>279</v>
+      <c r="A114" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="AT114">
         <v>-1.67505550686571</v>
@@ -3678,8 +3183,8 @@
       </c>
     </row>
     <row r="115" spans="1:86">
-      <c r="A115" s="1" t="s">
-        <v>280</v>
+      <c r="A115" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AT115">
         <v>-1.50943324443042</v>
@@ -3728,8 +3233,8 @@
       </c>
     </row>
     <row r="116" spans="1:86">
-      <c r="A116" s="1" t="s">
-        <v>281</v>
+      <c r="A116" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="AT116">
         <v>-1.34259343921168</v>
@@ -3784,8 +3289,8 @@
       </c>
     </row>
     <row r="117" spans="1:86">
-      <c r="A117" s="1" t="s">
-        <v>282</v>
+      <c r="A117" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="AT117">
         <v>-1.17072934607351</v>
@@ -3846,8 +3351,8 @@
       </c>
     </row>
     <row r="118" spans="1:86">
-      <c r="A118" s="1" t="s">
-        <v>283</v>
+      <c r="A118" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="BB118">
         <v>-1.16566281946711</v>
@@ -3890,8 +3395,8 @@
       </c>
     </row>
     <row r="119" spans="1:86">
-      <c r="A119" s="1" t="s">
-        <v>284</v>
+      <c r="A119" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="BB119">
         <v>-1.03847657835308</v>
@@ -3940,8 +3445,8 @@
       </c>
     </row>
     <row r="120" spans="1:86">
-      <c r="A120" s="1" t="s">
-        <v>285</v>
+      <c r="A120" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="BB120">
         <v>-0.896944683443509</v>
@@ -3996,8 +3501,8 @@
       </c>
     </row>
     <row r="121" spans="1:86">
-      <c r="A121" s="1" t="s">
-        <v>286</v>
+      <c r="A121" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="BB121">
         <v>-0.869395803915978</v>
@@ -4058,8 +3563,8 @@
       </c>
     </row>
     <row r="122" spans="1:86">
-      <c r="A122" s="1" t="s">
-        <v>287</v>
+      <c r="A122" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="BJ122">
         <v>-0.868467812433346</v>
@@ -4102,8 +3607,8 @@
       </c>
     </row>
     <row r="123" spans="1:86">
-      <c r="A123" s="1" t="s">
-        <v>288</v>
+      <c r="A123" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="BJ123">
         <v>-0.764000218134828</v>
@@ -4152,8 +3657,8 @@
       </c>
     </row>
     <row r="124" spans="1:86">
-      <c r="A124" s="1" t="s">
-        <v>289</v>
+      <c r="A124" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BJ124">
         <v>-0.679560698562689</v>
@@ -4208,8 +3713,8 @@
       </c>
     </row>
     <row r="125" spans="1:86">
-      <c r="A125" s="1" t="s">
-        <v>290</v>
+      <c r="A125" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="BJ125">
         <v>-0.621598524679072</v>
@@ -4270,8 +3775,8 @@
       </c>
     </row>
     <row r="126" spans="1:86">
-      <c r="A126" s="1" t="s">
-        <v>291</v>
+      <c r="A126" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="BR126">
         <v>-0.558455187153608</v>
@@ -4314,8 +3819,8 @@
       </c>
     </row>
     <row r="127" spans="1:86">
-      <c r="A127" s="1" t="s">
-        <v>292</v>
+      <c r="A127" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="BR127">
         <v>-0.404703884381607</v>
@@ -4364,8 +3869,8 @@
       </c>
     </row>
     <row r="128" spans="1:86">
-      <c r="A128" s="1" t="s">
-        <v>293</v>
+      <c r="A128" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="BR128">
         <v>-0.248485792816868</v>
@@ -4420,8 +3925,8 @@
       </c>
     </row>
     <row r="129" spans="1:118">
-      <c r="A129" s="1" t="s">
-        <v>294</v>
+      <c r="A129" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="BR129">
         <v>-0.09234556785551171</v>
@@ -4482,8 +3987,8 @@
       </c>
     </row>
     <row r="130" spans="1:118">
-      <c r="A130" s="1" t="s">
-        <v>295</v>
+      <c r="A130" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="BZ130">
         <v>-0.131423109303878</v>
@@ -4526,8 +4031,8 @@
       </c>
     </row>
     <row r="131" spans="1:118">
-      <c r="A131" s="1" t="s">
-        <v>296</v>
+      <c r="A131" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="BZ131">
         <v>-0.161059619525357</v>
@@ -4576,8 +4081,8 @@
       </c>
     </row>
     <row r="132" spans="1:118">
-      <c r="A132" s="1" t="s">
-        <v>297</v>
+      <c r="A132" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="BZ132">
         <v>-0.18794028191239</v>
@@ -4632,8 +4137,8 @@
       </c>
     </row>
     <row r="133" spans="1:118">
-      <c r="A133" s="1" t="s">
-        <v>298</v>
+      <c r="A133" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="BZ133">
         <v>-0.214579788840563</v>
@@ -4694,8 +4199,8 @@
       </c>
     </row>
     <row r="134" spans="1:118">
-      <c r="A134" s="1" t="s">
-        <v>299</v>
+      <c r="A134" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="CH134">
         <v>-0.43177520301282</v>
@@ -4738,8 +4243,8 @@
       </c>
     </row>
     <row r="135" spans="1:118">
-      <c r="A135" s="1" t="s">
-        <v>300</v>
+      <c r="A135" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="CH135">
         <v>-0.460058286402591</v>
@@ -4788,8 +4293,8 @@
       </c>
     </row>
     <row r="136" spans="1:118">
-      <c r="A136" s="1" t="s">
-        <v>301</v>
+      <c r="A136" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="CH136">
         <v>-0.474092944720326</v>
@@ -4844,8 +4349,8 @@
       </c>
     </row>
     <row r="137" spans="1:118">
-      <c r="A137" s="1" t="s">
-        <v>302</v>
+      <c r="A137" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="CH137">
         <v>-0.471945442488812</v>
@@ -4906,8 +4411,8 @@
       </c>
     </row>
     <row r="138" spans="1:118">
-      <c r="A138" s="1" t="s">
-        <v>303</v>
+      <c r="A138" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="CP138">
         <v>-0.279187625433634</v>
@@ -4950,8 +4455,8 @@
       </c>
     </row>
     <row r="139" spans="1:118">
-      <c r="A139" s="1" t="s">
-        <v>304</v>
+      <c r="A139" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="CP139">
         <v>-0.269240002397317</v>
@@ -5000,8 +4505,8 @@
       </c>
     </row>
     <row r="140" spans="1:118">
-      <c r="A140" s="1" t="s">
-        <v>305</v>
+      <c r="A140" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="CP140">
         <v>-0.23819465625442</v>
@@ -5056,8 +4561,8 @@
       </c>
     </row>
     <row r="141" spans="1:118">
-      <c r="A141" s="1" t="s">
-        <v>306</v>
+      <c r="A141" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="CP141">
         <v>-0.200816563346579</v>
@@ -5118,8 +4623,8 @@
       </c>
     </row>
     <row r="142" spans="1:118">
-      <c r="A142" s="1" t="s">
-        <v>307</v>
+      <c r="A142" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="CX142">
         <v>-1.61587792909726</v>
@@ -5162,8 +4667,8 @@
       </c>
     </row>
     <row r="143" spans="1:118">
-      <c r="A143" s="1" t="s">
-        <v>308</v>
+      <c r="A143" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="CX143">
         <v>-1.57161007288006</v>
@@ -5212,8 +4717,8 @@
       </c>
     </row>
     <row r="144" spans="1:118">
-      <c r="A144" s="1" t="s">
-        <v>309</v>
+      <c r="A144" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="CX144">
         <v>-1.48425197188503</v>
@@ -5268,8 +4773,8 @@
       </c>
     </row>
     <row r="145" spans="1:150">
-      <c r="A145" s="1" t="s">
-        <v>310</v>
+      <c r="A145" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="CX145">
         <v>-1.36270760236074</v>
@@ -5330,8 +4835,8 @@
       </c>
     </row>
     <row r="146" spans="1:150">
-      <c r="A146" s="1" t="s">
-        <v>311</v>
+      <c r="A146" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="DF146">
         <v>-5.18002022159488</v>
@@ -5374,8 +4879,8 @@
       </c>
     </row>
     <row r="147" spans="1:150">
-      <c r="A147" s="1" t="s">
-        <v>312</v>
+      <c r="A147" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="DF147">
         <v>-4.68574108923279</v>
@@ -5424,8 +4929,8 @@
       </c>
     </row>
     <row r="148" spans="1:150">
-      <c r="A148" s="1" t="s">
-        <v>313</v>
+      <c r="A148" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="DF148">
         <v>-4.16832407287056</v>
@@ -5480,8 +4985,8 @@
       </c>
     </row>
     <row r="149" spans="1:150">
-      <c r="A149" s="1" t="s">
-        <v>314</v>
+      <c r="A149" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="DF149">
         <v>-3.63538641459469</v>
@@ -5542,8 +5047,8 @@
       </c>
     </row>
     <row r="150" spans="1:150">
-      <c r="A150" s="1" t="s">
-        <v>315</v>
+      <c r="A150" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="DN150">
         <v>-5.98173279556799</v>
@@ -5586,8 +5091,8 @@
       </c>
     </row>
     <row r="151" spans="1:150">
-      <c r="A151" s="1" t="s">
-        <v>316</v>
+      <c r="A151" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="DN151">
         <v>-5.5587121477956</v>
@@ -5636,8 +5141,8 @@
       </c>
     </row>
     <row r="152" spans="1:150">
-      <c r="A152" s="1" t="s">
-        <v>317</v>
+      <c r="A152" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="DN152">
         <v>-5.12683942408094</v>
@@ -5692,8 +5197,8 @@
       </c>
     </row>
     <row r="153" spans="1:150">
-      <c r="A153" s="1" t="s">
-        <v>318</v>
+      <c r="A153" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="DN153">
         <v>-4.67944111398616</v>
@@ -5754,8 +5259,8 @@
       </c>
     </row>
     <row r="154" spans="1:150">
-      <c r="A154" s="1" t="s">
-        <v>319</v>
+      <c r="A154" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="DV154">
         <v>-5.58707882813499</v>
@@ -5798,8 +5303,8 @@
       </c>
     </row>
     <row r="155" spans="1:150">
-      <c r="A155" s="1" t="s">
-        <v>320</v>
+      <c r="A155" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="DV155">
         <v>-5.33402771233911</v>
@@ -5848,8 +5353,8 @@
       </c>
     </row>
     <row r="156" spans="1:150">
-      <c r="A156" s="1" t="s">
-        <v>321</v>
+      <c r="A156" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="DV156">
         <v>-5.03549348165329</v>
@@ -5904,8 +5409,8 @@
       </c>
     </row>
     <row r="157" spans="1:150">
-      <c r="A157" s="1" t="s">
-        <v>322</v>
+      <c r="A157" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="DV157">
         <v>-4.71235969179659</v>
@@ -5966,8 +5471,8 @@
       </c>
     </row>
     <row r="158" spans="1:150">
-      <c r="A158" s="1" t="s">
-        <v>323</v>
+      <c r="A158" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="ED158">
         <v>-3.9392022821934</v>
@@ -6010,8 +5515,8 @@
       </c>
     </row>
     <row r="159" spans="1:150">
-      <c r="A159" s="1" t="s">
-        <v>324</v>
+      <c r="A159" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="ED159">
         <v>-3.68740396418504</v>
@@ -6060,8 +5565,8 @@
       </c>
     </row>
     <row r="160" spans="1:150">
-      <c r="A160" s="1" t="s">
-        <v>325</v>
+      <c r="A160" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="ED160">
         <v>-3.38722960942646</v>
@@ -6116,8 +5621,8 @@
       </c>
     </row>
     <row r="161" spans="1:168">
-      <c r="A161" s="1" t="s">
-        <v>326</v>
+      <c r="A161" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="ED161">
         <v>-3.05815529346123</v>
@@ -6178,8 +5683,8 @@
       </c>
     </row>
     <row r="162" spans="1:168">
-      <c r="A162" s="1" t="s">
-        <v>327</v>
+      <c r="A162" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="EL162">
         <v>-2.17020492210917</v>
@@ -6222,8 +5727,8 @@
       </c>
     </row>
     <row r="163" spans="1:168">
-      <c r="A163" s="1" t="s">
-        <v>328</v>
+      <c r="A163" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="EL163">
         <v>-1.86661828375794</v>
@@ -6272,8 +5777,8 @@
       </c>
     </row>
     <row r="164" spans="1:168">
-      <c r="A164" s="1" t="s">
-        <v>329</v>
+      <c r="A164" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="EL164">
         <v>-1.54704045020331</v>
@@ -6328,8 +5833,8 @@
       </c>
     </row>
     <row r="165" spans="1:168">
-      <c r="A165" s="1" t="s">
-        <v>330</v>
+      <c r="A165" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="EL165">
         <v>-1.26881965976121</v>
@@ -6390,8 +5895,8 @@
       </c>
     </row>
     <row r="166" spans="1:168">
-      <c r="A166" s="1" t="s">
-        <v>331</v>
+      <c r="A166" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="EO166">
         <v>-0.375231888352164</v>
@@ -6449,8 +5954,8 @@
       </c>
     </row>
     <row r="167" spans="1:168">
-      <c r="A167" s="1" t="s">
-        <v>332</v>
+      <c r="A167" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="EO167">
         <v>-0.0930984455721889</v>
@@ -6514,8 +6019,8 @@
       </c>
     </row>
     <row r="168" spans="1:168">
-      <c r="A168" s="1" t="s">
-        <v>333</v>
+      <c r="A168" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="EO168">
         <v>0.140664330639474</v>
@@ -6585,8 +6090,8 @@
       </c>
     </row>
     <row r="169" spans="1:168">
-      <c r="A169" s="1" t="s">
-        <v>334</v>
+      <c r="A169" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="EO169">
         <v>0.427415073331484</v>
@@ -6662,8 +6167,8 @@
       </c>
     </row>
     <row r="170" spans="1:168">
-      <c r="A170" s="1" t="s">
-        <v>335</v>
+      <c r="A170" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="ES170">
         <v>1.4695930226089</v>
@@ -6727,8 +6232,8 @@
       </c>
     </row>
     <row r="171" spans="1:168">
-      <c r="A171" s="1" t="s">
-        <v>336</v>
+      <c r="A171" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="ES171">
         <v>1.5869797322208</v>
@@ -6792,8 +6297,8 @@
       </c>
     </row>
     <row r="172" spans="1:168">
-      <c r="A172" s="1" t="s">
-        <v>337</v>
+      <c r="A172" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="ES172">
         <v>1.57846643247691</v>
@@ -6857,8 +6362,8 @@
       </c>
     </row>
     <row r="173" spans="1:168">
-      <c r="A173" s="1" t="s">
-        <v>338</v>
+      <c r="A173" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="ES173">
         <v>1.58708702360295</v>
@@ -6922,8 +6427,8 @@
       </c>
     </row>
     <row r="174" spans="1:168">
-      <c r="A174" s="1" t="s">
-        <v>339</v>
+      <c r="A174" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="FA174">
         <v>0.218138617577382</v>
@@ -6963,8 +6468,8 @@
       </c>
     </row>
     <row r="175" spans="1:168">
-      <c r="A175" s="1" t="s">
-        <v>340</v>
+      <c r="A175" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="FA175">
         <v>0.310704975670134</v>
@@ -7004,8 +6509,8 @@
       </c>
     </row>
     <row r="176" spans="1:168">
-      <c r="A176" s="1" t="s">
-        <v>341</v>
+      <c r="A176" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="FA176">
         <v>0.397817204053538</v>
@@ -7045,8 +6550,8 @@
       </c>
     </row>
     <row r="177" spans="1:168">
-      <c r="A177" s="1" t="s">
-        <v>342</v>
+      <c r="A177" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="FA177">
         <v>0.462779923382588</v>
@@ -7086,8 +6591,8 @@
       </c>
     </row>
     <row r="178" spans="1:168">
-      <c r="A178" s="1" t="s">
-        <v>343</v>
+      <c r="A178" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="FI178">
         <v>1.34325132600738</v>
@@ -7103,8 +6608,8 @@
       </c>
     </row>
     <row r="179" spans="1:168">
-      <c r="A179" s="1" t="s">
-        <v>344</v>
+      <c r="A179" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="FI179">
         <v>1.38834021583897</v>
@@ -7120,8 +6625,8 @@
       </c>
     </row>
     <row r="180" spans="1:168">
-      <c r="A180" s="1" t="s">
-        <v>345</v>
+      <c r="A180" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="FI180">
         <v>1.41911691711462</v>
@@ -7137,8 +6642,8 @@
       </c>
     </row>
     <row r="181" spans="1:168">
-      <c r="A181" s="1" t="s">
-        <v>346</v>
+      <c r="A181" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="FI181">
         <v>1.35836886453476</v>
